--- a/艾宾浩特记忆曲线.xlsx
+++ b/艾宾浩特记忆曲线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programs\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A81F9BA-EB1B-4D38-BA9C-63225164E3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4111D4-F542-4084-9D7D-F891AB8FC536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B8240506-5984-47AD-AB46-BE492D5DF32F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>计算机组成原理 - 计算机系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络 - 网络基础1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,6 +177,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -201,6 +213,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,7 +553,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,43 +641,62 @@
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="E3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="5">
+        <v>45958</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f>HYPERLINK("InterviewQuestions/Structured/计算机网络/网络基础1.md","跳转到MD文件")</f>
+        <v>跳转到MD文件</v>
+      </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4" si="0">B4+1</f>
-        <v>1</v>
+        <v>45959</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4" si="1">B4+2</f>
-        <v>2</v>
+        <v>45960</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" ref="G4" si="2">B4+4</f>
-        <v>4</v>
+        <v>45962</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4" si="3">B4+7</f>
-        <v>7</v>
+        <v>45965</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4" si="4">B4+15</f>
-        <v>15</v>
+        <v>45973</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4" si="5">B4+30</f>
-        <v>30</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -656,12 +704,24 @@
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="E5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -700,12 +760,24 @@
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="E7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
@@ -744,12 +816,24 @@
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="E9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
@@ -788,12 +872,24 @@
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="E11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
@@ -832,12 +928,24 @@
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="E13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -876,12 +984,24 @@
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="E15" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
@@ -920,12 +1040,24 @@
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="E17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
@@ -964,12 +1096,24 @@
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="E19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
@@ -1008,12 +1152,24 @@
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="E21" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
@@ -1052,12 +1208,24 @@
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="E23" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
@@ -1096,12 +1264,24 @@
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="E25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
@@ -1140,27 +1320,51 @@
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="E27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
@@ -1177,30 +1381,18 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/艾宾浩特记忆曲线.xlsx
+++ b/艾宾浩特记忆曲线.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programs\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4111D4-F542-4084-9D7D-F891AB8FC536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B591E9D7-304E-40A4-9BA9-A060593A6621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B8240506-5984-47AD-AB46-BE492D5DF32F}"/>
+    <workbookView xWindow="-29835" yWindow="3630" windowWidth="21600" windowHeight="11295" xr2:uid="{B8240506-5984-47AD-AB46-BE492D5DF32F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,20 +171,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -553,7 +553,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,16 +598,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
         <v>45957</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="str">
+      <c r="D2" s="7" t="str">
         <f>HYPERLINK("InterviewQuestions/Structured/计算机组成原理/计算机系统.md","跳转到MD文件")</f>
         <v>跳转到MD文件</v>
       </c>
@@ -637,40 +637,40 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="b">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>45958</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="str">
+      <c r="D4" s="7" t="str">
         <f>HYPERLINK("InterviewQuestions/Structured/计算机网络/网络基础1.md","跳转到MD文件")</f>
         <v>跳转到MD文件</v>
       </c>
@@ -700,36 +700,36 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="b">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="3">
         <f t="shared" ref="E6" si="6">B6+1</f>
         <v>1</v>
@@ -756,36 +756,36 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="b">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="3">
         <f t="shared" ref="E8" si="12">B8+1</f>
         <v>1</v>
@@ -812,36 +812,36 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="b">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="3">
         <f t="shared" ref="E10" si="18">B10+1</f>
         <v>1</v>
@@ -868,36 +868,36 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="b">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="3">
         <f t="shared" ref="E12" si="24">B12+1</f>
         <v>1</v>
@@ -924,36 +924,36 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="b">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="3">
         <f t="shared" ref="E14" si="30">B14+1</f>
         <v>1</v>
@@ -980,36 +980,36 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="b">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>8</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="3">
         <f t="shared" ref="E16" si="36">B16+1</f>
         <v>1</v>
@@ -1036,36 +1036,36 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="b">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>9</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="3">
         <f t="shared" ref="E18" si="42">B18+1</f>
         <v>1</v>
@@ -1092,36 +1092,36 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="b">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>10</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="3">
         <f t="shared" ref="E20" si="48">B20+1</f>
         <v>1</v>
@@ -1148,36 +1148,36 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="b">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>11</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="3">
         <f t="shared" ref="E22" si="54">B22+1</f>
         <v>1</v>
@@ -1204,36 +1204,36 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="b">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>12</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="3">
         <f t="shared" ref="E24" si="60">B24+1</f>
         <v>1</v>
@@ -1260,36 +1260,36 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="b">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>13</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="3">
         <f t="shared" ref="E26" si="66">B26+1</f>
         <v>1</v>
@@ -1316,31 +1316,67 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="b">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
@@ -1357,42 +1393,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/艾宾浩特记忆曲线.xlsx
+++ b/艾宾浩特记忆曲线.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programs\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B591E9D7-304E-40A4-9BA9-A060593A6621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7C1D3C-A951-4C8A-AB03-53B103BA8BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29835" yWindow="3630" windowWidth="21600" windowHeight="11295" xr2:uid="{B8240506-5984-47AD-AB46-BE492D5DF32F}"/>
+    <workbookView xWindow="6000" yWindow="5685" windowWidth="21600" windowHeight="11295" xr2:uid="{B8240506-5984-47AD-AB46-BE492D5DF32F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="b">
         <v>0</v>
@@ -1341,18 +1341,30 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
@@ -1369,30 +1381,18 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/艾宾浩特记忆曲线.xlsx
+++ b/艾宾浩特记忆曲线.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programs\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7C1D3C-A951-4C8A-AB03-53B103BA8BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C49A9E8-897B-4E50-94C4-8BBD2824E0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="5685" windowWidth="21600" windowHeight="11295" xr2:uid="{B8240506-5984-47AD-AB46-BE492D5DF32F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B8240506-5984-47AD-AB46-BE492D5DF32F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4" t="b">
         <v>0</v>
@@ -1341,6 +1341,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
@@ -1357,42 +1393,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/艾宾浩特记忆曲线.xlsx
+++ b/艾宾浩特记忆曲线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programs\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C49A9E8-897B-4E50-94C4-8BBD2824E0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156DC380-0F3C-4488-BA1C-359E0C054AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B8240506-5984-47AD-AB46-BE492D5DF32F}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4" t="b">
         <v>0</v>
@@ -1341,18 +1341,30 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
@@ -1369,30 +1381,18 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/艾宾浩特记忆曲线.xlsx
+++ b/艾宾浩特记忆曲线.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programs\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156DC380-0F3C-4488-BA1C-359E0C054AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E69F02-26A6-42C1-8359-2D9563663092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B8240506-5984-47AD-AB46-BE492D5DF32F}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="4" t="b">
         <v>0</v>
@@ -1341,6 +1341,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
@@ -1357,42 +1393,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/艾宾浩特记忆曲线.xlsx
+++ b/艾宾浩特记忆曲线.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programs\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E69F02-26A6-42C1-8359-2D9563663092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5218566A-F9D7-456E-98D5-EA6206F83F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B8240506-5984-47AD-AB46-BE492D5DF32F}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{B8240506-5984-47AD-AB46-BE492D5DF32F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4" t="b">
         <v>0</v>
@@ -1341,18 +1341,30 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
@@ -1369,30 +1381,18 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/艾宾浩特记忆曲线.xlsx
+++ b/艾宾浩特记忆曲线.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programs\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5218566A-F9D7-456E-98D5-EA6206F83F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA78EB12-A8BF-423C-89D8-288852CE1B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{B8240506-5984-47AD-AB46-BE492D5DF32F}"/>
+    <workbookView xWindow="3870" yWindow="4845" windowWidth="28800" windowHeight="15345" xr2:uid="{B8240506-5984-47AD-AB46-BE492D5DF32F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="4" t="b">
         <v>0</v>
@@ -1341,6 +1341,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
@@ -1357,42 +1393,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">

--- a/艾宾浩特记忆曲线.xlsx
+++ b/艾宾浩特记忆曲线.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programs\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA78EB12-A8BF-423C-89D8-288852CE1B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B88F40F-87AF-41EA-B930-FA12473BBAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="4845" windowWidth="28800" windowHeight="15345" xr2:uid="{B8240506-5984-47AD-AB46-BE492D5DF32F}"/>
+    <workbookView xWindow="3555" yWindow="4740" windowWidth="28800" windowHeight="15345" xr2:uid="{B8240506-5984-47AD-AB46-BE492D5DF32F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="4" t="b">
         <v>0</v>
@@ -1341,18 +1341,30 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
@@ -1369,30 +1381,18 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
